--- a/docs/Finance/templates/Shared.xlsx
+++ b/docs/Finance/templates/Shared.xlsx
@@ -150,31 +150,31 @@
     </row>
     <row r="5">
       <c r="E5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&I5&") VALUES ("&M5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&I5&") VALUES ("&M5&");" ]]></f>
       </c>
       <c r="F5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="G5">
-        <f><![CDATA[F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="H5">
-        <f><![CDATA[G5&IF(AND(G5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  G5&IF(AND(G5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="I5">
-        <f><![CDATA[H5&IF(AND(H5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  H5&IF(AND(H5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="J5">
-        <f>IF(A5&lt;&gt;"","'"&amp;A5&amp;"'","")</f>
+        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"","'"&TEXT(B5,"YYYY-MM-DD")&" "&TEXT(B5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"", "'"&TEXT(B5,"YYYY-MM-DD")&" "&TEXT(B5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"","'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Finance/templates/Shared.xlsx
+++ b/docs/Finance/templates/Shared.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t/>
   </si>
@@ -23,19 +23,31 @@
     <t>Modification data structure</t>
   </si>
   <si>
+    <t>User created record</t>
+  </si>
+  <si>
     <t>created_by</t>
   </si>
   <si>
     <t>varchar(20), NN</t>
   </si>
   <si>
+    <t>Timestamp of record create</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>timestamptz, NN</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
+  </si>
+  <si>
+    <t>Timestamp of record update</t>
   </si>
   <si>
     <t>updated_at</t>
@@ -86,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,7 +129,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -125,13 +137,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -139,42 +151,56 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="E5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&I5&") VALUES ("&M5&");" ]]></f>
-      </c>
-      <c r="F5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="G5">
-        <f><![CDATA[  F5&IF(AND(F5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="H5">
-        <f><![CDATA[  G5&IF(AND(G5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="I5">
-        <f><![CDATA[  H5&IF(AND(H5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="J5">
-        <f>IF(A5&lt;&gt;"", "'"&amp;A5&amp;"'" ,"")</f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",B5<>""),", ","")&IF(B5<>"", "'"&TEXT(B5,"YYYY-MM-DD")&" "&TEXT(B5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",D5<>""),", ","")&IF(D5<>"", "'"&TEXT(D5,"YYYY-MM-DD")&" "&TEXT(D5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&I6&") VALUES ("&M6&");" ]]></f>
+      </c>
+      <c r="F6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="G6">
+        <f><![CDATA[  F6&IF(AND(F6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="H6">
+        <f><![CDATA[  G6&IF(AND(G6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="I6">
+        <f><![CDATA[  H6&IF(AND(H6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="J6">
+        <f>IF(A6&lt;&gt;"", "'"&amp;A6&amp;"'" ,"")</f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",B6<>""),", ","")&IF(B6<>"", "'"&TEXT(B6,"YYYY-MM-DD")&" "&TEXT(B6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",D6<>""),", ","")&IF(D6<>"", "'"&TEXT(D6,"YYYY-MM-DD")&" "&TEXT(D6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
